--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1965401.802548282</v>
+        <v>1961097.462738414</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -664,70 +664,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>215.0845781150032</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>115.3066195468971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>225.4031397636151</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>146.2884097021968</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>147.1573380023707</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>53.19496153244467</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="V4" t="n">
-        <v>252.137643323828</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>154.8104108281434</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>2.413725145939887</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>155.2537761190401</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>136.9174416231161</v>
       </c>
       <c r="W7" t="n">
-        <v>227.7083429303902</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>267.3569572714303</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465034</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>179.9676477990569</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>18.47335059662137</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.9062466127786</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>50.34571932180092</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>55.23698968933512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.0635245304612</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>75.12653431054493</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>14.76058440587574</v>
+        <v>57.24347904696278</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>2.60701007315258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>137.0965178272089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>78.71385496658286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>122.2059282187646</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>98.45284414232987</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>98.72106119200248</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>265.1755449233445</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>192.8396132741332</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>144.4286493356916</v>
+        <v>167.2468210986315</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406006</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.35517081455633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.9322208041654</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>141.5888089825039</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7979242836798</v>
+        <v>634.1670622275108</v>
       </c>
       <c r="C2" t="n">
-        <v>560.7979242836798</v>
+        <v>634.1670622275108</v>
       </c>
       <c r="D2" t="n">
-        <v>560.7979242836798</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515901</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.59818340306</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991314</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>634.1670622275108</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.3434173285435</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>303.3434173285435</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3434173285435</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534679</v>
+        <v>907.089449599765</v>
       </c>
       <c r="V3" t="n">
-        <v>659.7474918534679</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="W3" t="n">
-        <v>659.7474918534679</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="X3" t="n">
-        <v>511.1037160934974</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="Y3" t="n">
-        <v>303.3434173285435</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.213812478154</v>
+        <v>632.1037110871865</v>
       </c>
       <c r="C4" t="n">
-        <v>198.213812478154</v>
+        <v>463.1675281592796</v>
       </c>
       <c r="D4" t="n">
-        <v>198.213812478154</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="E4" t="n">
-        <v>198.213812478154</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="F4" t="n">
-        <v>198.213812478154</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G4" t="n">
-        <v>198.213812478154</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
         <v>144.4815281019473</v>
@@ -4506,34 +4506,34 @@
         <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U4" t="n">
-        <v>452.8983006840409</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V4" t="n">
-        <v>198.213812478154</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W4" t="n">
-        <v>198.213812478154</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="X4" t="n">
-        <v>198.213812478154</v>
+        <v>632.1037110871865</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.213812478154</v>
+        <v>632.1037110871865</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>936.701412977308</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>936.701412977308</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>670.32375641013</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.8350848567712</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>216.8350848567712</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>67.90067519551997</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278862</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>864.141532454616</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>981.1991324880196</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534679</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>424.5953836217251</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>424.5953836217251</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>424.5953836217251</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>216.8350848567712</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.6190652185647</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>307.6190652185647</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>307.6190652185647</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>719.2759572512189</v>
+        <v>916.5550739220689</v>
       </c>
       <c r="W7" t="n">
-        <v>489.2675300488045</v>
+        <v>650.177417354891</v>
       </c>
       <c r="X7" t="n">
-        <v>489.2675300488045</v>
+        <v>650.177417354891</v>
       </c>
       <c r="Y7" t="n">
-        <v>489.2675300488045</v>
+        <v>650.177417354891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1876.731217729103</v>
+        <v>1249.269430205405</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.673685131699</v>
+        <v>880.306913264993</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>522.0412146582426</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>136.2529620599983</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353407</v>
+        <v>129.3074613107949</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270079</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
         <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.370225146717</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607421</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999217</v>
+        <v>2378.777257515452</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729103</v>
+        <v>2026.008602245338</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729103</v>
+        <v>2026.008602245338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.731217729103</v>
+        <v>1635.869270269526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010773</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199503</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.122281858699</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532435</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801285</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763167</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>69.87120530445299</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148186</v>
+        <v>559.9063389572707</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996586</v>
+        <v>854.442322390752</v>
       </c>
       <c r="M9" t="n">
-        <v>1479.338790899458</v>
+        <v>1217.508790865053</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.423193372028</v>
+        <v>1604.593193337623</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359418</v>
+        <v>1936.480003325012</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789043</v>
+        <v>2445.345361789037</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251703</v>
+        <v>2424.826280251698</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685352</v>
+        <v>2230.816477685347</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751582</v>
+        <v>2002.726321751576</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519839</v>
+        <v>1767.574213519834</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791638</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586105</v>
+        <v>1305.485356586099</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821145</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>768.6211885233664</v>
+        <v>665.0671186274018</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6211885233664</v>
+        <v>496.1309356994949</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6211885233664</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7080949409733</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685576</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380169</v>
+        <v>76.63468308380146</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676568</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368919</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904034</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412622</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634456</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108861</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276035029</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="V10" t="n">
-        <v>824.4161276035029</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>824.4161276035029</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>768.6211885233664</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.6211885233664</v>
+        <v>846.7155834576415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.306025422648</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>929.3698424947406</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>779.2532030824049</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E13" t="n">
-        <v>631.3401095000117</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.747069396417</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1279.954490252887</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560544</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718132</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>802.9288273958739</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D16" t="n">
-        <v>652.8121879835381</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E16" t="n">
-        <v>504.899094401145</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F16" t="n">
-        <v>358.0091469032346</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G16" t="n">
-        <v>190.8130476181146</v>
+        <v>151.638359055005</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438171</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687974</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408905</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1431.068022140585</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.078471242567</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990371</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>3852.746978262349</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>3563.329808225389</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>3563.329808225389</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>3342.537229081859</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1878.013763195024</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1623.329274989137</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1333.912104952176</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,22 +6542,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,7 +6733,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6882,25 +6882,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1709.606994729352</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
         <v>971.4076946508441</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,19 +7010,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
         <v>1373.553594266881</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>707.6725264685217</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216017</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238959</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583157</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.52029137727</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340309</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442292</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987614</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7256,19 +7256,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7496,16 +7496,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140407</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544042</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.78351343583185</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084427</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.3103888136342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094957</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348496</v>
+        <v>20.98618304348508</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3575234924700226</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.16817853567896</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>125.5341284403481</v>
+        <v>83.05123379926111</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.9159882634384</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>149.4264805093821</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>173.4237883572451</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.04089287986324</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.52575990662535</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>21.00892946589966</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>22.81817176293623</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.505489761044</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.089149691</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496914</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049983</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
@@ -26355,7 +26355,7 @@
         <v>565002.6197830043</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580801</v>
+        <v>390680.007658079</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606924</v>
+        <v>507909.232060693</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101798</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608928</v>
+        <v>138058.0537608931</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768859</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768847</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567896</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417844.5112211651</v>
+        <v>-417844.5112211653</v>
       </c>
       <c r="C6" t="n">
-        <v>262243.4693700283</v>
+        <v>262243.4693700281</v>
       </c>
       <c r="D6" t="n">
-        <v>-46911.69008965362</v>
+        <v>-46911.69008965253</v>
       </c>
       <c r="E6" t="n">
-        <v>-53976.28642336378</v>
+        <v>-54323.66567772162</v>
       </c>
       <c r="F6" t="n">
-        <v>453932.9456373285</v>
+        <v>453585.5663829712</v>
       </c>
       <c r="G6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829715</v>
       </c>
       <c r="H6" t="n">
-        <v>453932.9456373286</v>
+        <v>453585.5663829714</v>
       </c>
       <c r="I6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829714</v>
       </c>
       <c r="J6" t="n">
-        <v>384933.7912182143</v>
+        <v>384586.4119638572</v>
       </c>
       <c r="K6" t="n">
-        <v>453932.9456373285</v>
+        <v>453585.5663829715</v>
       </c>
       <c r="L6" t="n">
-        <v>358662.7078463105</v>
+        <v>358315.3285919539</v>
       </c>
       <c r="M6" t="n">
-        <v>321214.9699418596</v>
+        <v>320867.5906875023</v>
       </c>
       <c r="N6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829714</v>
       </c>
       <c r="O6" t="n">
-        <v>453932.9456373283</v>
+        <v>453585.5663829713</v>
       </c>
       <c r="P6" t="n">
-        <v>453932.9456373284</v>
+        <v>453585.5663829715</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.7024595627829</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085697</v>
+        <v>640.1406900856956</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933055</v>
+        <v>319.6474457933047</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788902</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841909</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139515</v>
+        <v>532.5675980139523</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841908</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>139.5984635056798</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>143.1621657402054</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.8347988924384</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>79.56607780135786</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>58.61564720110675</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.18719780341212</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>70.89924456089378</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>134.1756019198531</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>155.2313553094611</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>50.51920908443734</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>115.2202017007119</v>
       </c>
       <c r="W7" t="n">
-        <v>58.81465540620076</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>97.91593449957725</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>147.784610671078</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164531009</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.776449164525729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>170.4057691885378</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>170.472665699702</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30146,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-2.266509822728148e-12</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972533</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.469162776319</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.342717135493</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.095405035994</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525076</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307894</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983021</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542129</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140471</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.1468330902627</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502168</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571281</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617166</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152214</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519084</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947589</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366399</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133936</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415879</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.655959046235</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307414</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658777</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942751</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650333</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>349.3304751113899</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950826</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>435.9638754389779</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,13 +33262,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>622.3466130915036</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>629.0082733147303</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,7 +33745,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204527</v>
       </c>
       <c r="Q4" t="n">
         <v>6.560263827496826</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.40039143232826</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313385</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.5763021655058</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087213</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559167</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091026</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430325</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234292</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127605</v>
+        <v>62.90656844127585</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758581</v>
+        <v>450.9268494884364</v>
       </c>
       <c r="L9" t="n">
-        <v>640.140690085697</v>
+        <v>297.5110943772539</v>
       </c>
       <c r="M9" t="n">
-        <v>553.044195353333</v>
+        <v>366.7338065396983</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.9943459318881</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074639</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804291</v>
+        <v>514.0054125899244</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603486</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.68023017873315</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254636</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228584</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>211.4890361370309</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8360547723481</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>37.76383318075232</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>293.3676309945334</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>479.7503686470592</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>490.4538935348562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,7 +37393,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,22 +37624,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1961097.462738414</v>
+        <v>1962857.993041199</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>215.0845781150032</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>153.3100698760835</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>146.2884097021968</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>71.70103335589236</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8104108281434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>89.2355469633636</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190401</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>68.36004337105362</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>136.9174416231161</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>40.84465200289269</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>179.9676477990569</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662137</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256442</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.34571932180092</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>231.1172669906605</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>75.12653431054493</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>247.2924896597629</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.39650288673274</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.24347904696278</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>27.31547498186427</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>122.2059282187646</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.6685478670739</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.8396132741332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986315</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406006</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>64.35711883683373</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>206.7582264966179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275108</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C2" t="n">
-        <v>634.1670622275108</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163965</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163965</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515901</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.59818340306</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991314</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946887</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946887</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946887</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275108</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302307</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267545</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>907.089449599765</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V3" t="n">
-        <v>671.9373413680223</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W3" t="n">
-        <v>671.9373413680223</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="X3" t="n">
-        <v>671.9373413680223</v>
+        <v>383.7160656055628</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>175.9557668406089</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>632.1037110871865</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C4" t="n">
-        <v>463.1675281592796</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>313.0508887469439</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4506,34 +4506,34 @@
         <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006024</v>
+        <v>982.4302337879517</v>
       </c>
       <c r="W4" t="n">
-        <v>788.4778634388465</v>
+        <v>716.0525772207736</v>
       </c>
       <c r="X4" t="n">
-        <v>632.1037110871865</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="Y4" t="n">
-        <v>632.1037110871865</v>
+        <v>488.0630263227563</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>318.9943252896841</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>318.9943252896841</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>111.2340265247302</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>424.4249251342376</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>255.4887422063307</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>105.3721027939949</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
         <v>316.708372655101</v>
@@ -4740,7 +4740,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>916.5550739220689</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>650.177417354891</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>650.177417354891</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.177417354891</v>
+        <v>606.0733899644773</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.269430205405</v>
+        <v>1289.665210770295</v>
       </c>
       <c r="C8" t="n">
-        <v>880.306913264993</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0412146582426</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2529620599983</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107949</v>
+        <v>837.4220817353408</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
         <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146717</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607421</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045922</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
         <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342782</v>
+        <v>2227.07793185841</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342782</v>
+        <v>1973.496753383979</v>
       </c>
       <c r="V8" t="n">
-        <v>2378.777257515452</v>
+        <v>1642.433866040409</v>
       </c>
       <c r="W8" t="n">
-        <v>2026.008602245338</v>
+        <v>1289.665210770295</v>
       </c>
       <c r="X8" t="n">
-        <v>2026.008602245338</v>
+        <v>1289.665210770295</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.869270269526</v>
+        <v>1289.665210770295</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010773</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199503</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.122281858699</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532435</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801285</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763167</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445299</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>238.3188829507236</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572707</v>
+        <v>422.9158793018229</v>
       </c>
       <c r="L9" t="n">
-        <v>854.442322390752</v>
+        <v>717.4518627353043</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865053</v>
+        <v>1080.518331209606</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337623</v>
+        <v>1467.602733682175</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325012</v>
+        <v>1966.043356600766</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789037</v>
+        <v>2213.07871503039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342782</v>
+        <v>2536.272628442626</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251698</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685347</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751576</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519834</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791632</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586099</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821145</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274018</v>
+        <v>664.1180605598041</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994949</v>
+        <v>664.1180605598041</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871591</v>
+        <v>514.0014211474684</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>366.0883275650753</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685565</v>
+        <v>219.1983800671649</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380146</v>
+        <v>76.63468308380152</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368919</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904034</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
         <v>1382.582027931091</v>
@@ -4992,22 +4992,22 @@
         <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1584.91488353615</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1584.91488353615</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.91488353615</v>
+        <v>1402.317360638312</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.497713499189</v>
+        <v>1112.900190601352</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>884.9106397033343</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576415</v>
+        <v>664.1180605598041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>546.5917956728314</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>398.6787020904383</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>251.7887545925279</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>251.7887545925279</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C16" t="n">
-        <v>763.7541388327643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>613.6374994204285</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>465.7244058380354</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>318.834458340125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>151.638359055005</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="17">
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972543</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.67509321183</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,13 +6004,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1053.171308869725</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1683.601903741512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.612352843495</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1234.819773699965</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6660,13 +6660,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,7 +6733,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6782,16 +6782,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.6725264685217</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216017</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238959</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583157</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.52029137727</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340309</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442292</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987614</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7651,16 +7651,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140407</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>168.2361746779813</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094957</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348508</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.16817853567896</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>4.845153664065066</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>135.8503182118951</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.05123379926111</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.2691783702305</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>45.04089287986324</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.505489761044</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.8897022617941</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856653.0891496913</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856653.089149691</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856653.0891496912</v>
+        <v>856653.0891496913</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856653.0891496914</v>
+        <v>856653.0891496912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="M2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658079</v>
+        <v>390680.0076580792</v>
       </c>
       <c r="E3" t="n">
         <v>507909.232060693</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101757</v>
+        <v>95270.23779101769</v>
       </c>
       <c r="M3" t="n">
         <v>132717.975695469</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307045</v>
@@ -26429,16 +26429,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26447,10 +26447,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768859</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768847</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567896</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417844.5112211653</v>
+        <v>-417844.5112211652</v>
       </c>
       <c r="C6" t="n">
         <v>262243.4693700281</v>
       </c>
       <c r="D6" t="n">
-        <v>-46911.69008965253</v>
+        <v>-46911.69008965274</v>
       </c>
       <c r="E6" t="n">
-        <v>-54323.66567772162</v>
+        <v>-54011.02434880051</v>
       </c>
       <c r="F6" t="n">
-        <v>453585.5663829712</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="G6" t="n">
-        <v>453585.5663829715</v>
+        <v>453898.2077118926</v>
       </c>
       <c r="H6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="I6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="J6" t="n">
-        <v>384586.4119638572</v>
+        <v>384899.0532927783</v>
       </c>
       <c r="K6" t="n">
-        <v>453585.5663829715</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="L6" t="n">
-        <v>358315.3285919539</v>
+        <v>358627.9699208749</v>
       </c>
       <c r="M6" t="n">
-        <v>320867.5906875023</v>
+        <v>321180.2320164235</v>
       </c>
       <c r="N6" t="n">
-        <v>453585.5663829714</v>
+        <v>453898.2077118927</v>
       </c>
       <c r="O6" t="n">
-        <v>453585.5663829713</v>
+        <v>453898.2077118928</v>
       </c>
       <c r="P6" t="n">
-        <v>453585.5663829715</v>
+        <v>453898.2077118927</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856956</v>
+        <v>640.140690085696</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933047</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
         <v>434.2730407788906</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139525</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139525</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>139.5984635056798</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>255.3852744282283</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545475</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.22311377378387</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,7 +27514,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>79.56607780135786</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>180.4366099679356</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>70.89924456089378</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.162135560564</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>77.29763668650374</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443734</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>78.07391927551555</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>115.2202017007119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>324.4282397681148</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>147.784610671078</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164531009</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164529595</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28064,13 +28064,13 @@
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>170.4057691885378</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>21.02037633316752</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30146,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.266509822728148e-12</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
         <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
         <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
         <v>256.3629847463702</v>
@@ -31630,10 +31630,10 @@
         <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31679,43 +31679,43 @@
         <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
         <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
         <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950826</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204527</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
         <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127585</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884364</v>
+        <v>186.4616124758579</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396983</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318881</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>503.4753766854453</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899244</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>326.4584983961978</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
         <v>173.348826751369</v>
@@ -35342,16 +35342,16 @@
         <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>37.76383318075232</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
